--- a/new kartochki/trbt.xlsx
+++ b/new kartochki/trbt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AG150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4195,15 +4195,15 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 1 масло лососевое для собак и кошек для поддержания здоровья почек,250 мл</t>
+          <t xml:space="preserve">            NECON SALMOIL RICETTA 1 - для поддержания работы почек. Лососевое масло для собак и кошек, 500 мл</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>8057438752218</t>
+          <t>8057438752225</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -4240,15 +4240,15 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 1 - для поддержания работы почек. Лососевое масло для собак и кошек, 500 мл</t>
+          <t xml:space="preserve">            NECON SALMOIL RICETTA 2 масло лососевое для собак и кошек для поддержания работы кишечника,150 мл</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>8057438752225</t>
+          <t>8057438753123</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -4285,15 +4285,15 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 2 масло лососевое для собак и кошек для поддержания работы кишечника,150 мл</t>
+          <t xml:space="preserve">            NECON SALMOIL RICETTA 2 - для поддер.работы кишечника. Лососевое масло для собак и кошек., 500 мл.</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>8057438753123</t>
+          <t>8057438752256</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -4330,15 +4330,15 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 2 - для поддер.работы кишечника. Лососевое масло для собак и кошек., 500 мл.</t>
+          <t xml:space="preserve">            NECON SALMOIL RICETTA 2 - для поддер/работы кишечника. Лососевое масло для собак и кошек., 950 мл</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>8057438752256</t>
+          <t>8057438752263</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -4375,15 +4375,15 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 2 - для поддер/работы кишечника. Лососевое масло для собак и кошек., 950 мл</t>
+          <t xml:space="preserve">            NECON SALMOIL RICETTA 4 масло лосос.для собак и кошек для борьбы с непр.запахом из рот.полости,150мл</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>8057438752263</t>
+          <t>8057438753093</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -4420,15 +4420,15 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 4 масло лосос.для собак и кошек для борьбы с непр.запахом из рот.полости,150мл</t>
+          <t xml:space="preserve">            NECON SALMOIL RICETTA 5 масло лососевое для собак и кошек для поддер. здоровья кожи и шерсти,150 мл</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>8057438753093</t>
+          <t>8057438753024</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -4465,15 +4465,15 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 5 масло лососевое для собак и кошек для поддер. здоровья кожи и шерсти,150 мл</t>
+          <t xml:space="preserve">            NECON SALMOIL RICETTA 6 масло лососевое для собак и кошек для поддержания здоровья суставов, 150мл</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>8057438753024</t>
+          <t>8057438753031</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -4510,15 +4510,15 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 6 масло лососевое для собак и кошек для поддержания здоровья суставов, 150мл</t>
+          <t xml:space="preserve">            NECON корм низкозерновой для стерилизованных кошек с свининой и рисом. Масса нетто 1,5 кг</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>8057438753031</t>
+          <t>8057438754076</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -4555,15 +4555,15 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON корм низкозерновой для стерилизованных кошек с свининой и рисом. Масса нетто 1,5 кг</t>
+          <t xml:space="preserve">            NECON корм низкозерновой для стерилизованных кошек с свининой и рисом., 10 кг</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8057438754076</t>
+          <t>8057438754205</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -4600,15 +4600,15 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON корм низкозерновой для стерилизованных кошек с свининой и рисом., 10 кг</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 3,8л</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8057438754205</t>
+          <t>4811178000107</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -4645,15 +4645,15 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 3,8л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 20кг</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>332</v>
+        <v>7</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4811178000107</t>
+          <t>4811178001043</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -4690,15 +4690,15 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 20кг</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 3,8л</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>386</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4811178001043</t>
+          <t>4811178000077</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -4735,15 +4735,15 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 3,8л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 3,8л</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>386</v>
+        <v>260</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>4811178000077</t>
+          <t>4811178000084</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -4780,15 +4780,15 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 3,8л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 7,6л</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4811178000084</t>
+          <t>4811178000121</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -4825,15 +4825,15 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 7,6л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 7,6л</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4811178000121</t>
+          <t>4811178000138</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -4870,15 +4870,15 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 7,6л</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый, 11,4л</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4811178000138</t>
+          <t>4811178000343</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -4915,15 +4915,15 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый, 11,4л</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый с лавандой, 11,4л</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>4811178000343</t>
+          <t>4811178000350</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -4960,15 +4960,15 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый с лавандой, 11,4л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 20кг</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4811178000350</t>
+          <t>4811178001029</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -5005,15 +5005,15 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 20кг</t>
+          <t xml:space="preserve">            Наполнитель Кошкина Полянка "СИЛИКАМИКС" впитывающий 5л.</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>461</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>4811178001029</t>
+          <t>4811178000336</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -5050,15 +5050,15 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель Кошкина Полянка "СИЛИКАМИКС" впитывающий 5л.</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 6л</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4811178000336</t>
+          <t>4811178000428</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -5095,15 +5095,15 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 6л</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 12л</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>498</v>
+        <v>188</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>4811178000428</t>
+          <t>4811178000497</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -5140,15 +5140,15 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 12л</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка""Silicamix Сила кислорода"Лаванда впитывающий, 6л</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4811178000497</t>
+          <t>4811178000503</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -5185,15 +5185,15 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка""Silicamix Сила кислорода"Лаванда впитывающий, 6л</t>
+          <t xml:space="preserve">            Наполнитель д/кош.туалета"Кошкина Полянка" BENT-O2-SIL"с силикагелем и активн.кислородом,комкующ.,5л</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4811178000503</t>
+          <t>4811178000480</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -5230,15 +5230,15 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель д/кош.туалета"Кошкина Полянка" BENT-O2-SIL"с силикагелем и активн.кислородом,комкующ.,5л</t>
+          <t xml:space="preserve">            Наполнитель впитывающий "Кошкина Полянка" (цеолит), 5л.</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>186</v>
+        <v>441</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4811178000480</t>
+          <t>4811178000145</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -5275,15 +5275,15 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель впитывающий "Кошкина Полянка" (цеолит), 5л.</t>
+          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 3кг</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>441</v>
+        <v>352</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>4811178000145</t>
+          <t>4811178000060</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -5320,15 +5320,15 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 3кг</t>
+          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 5кг</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4811178000060</t>
+          <t>4811178000039</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -5365,15 +5365,15 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 5кг</t>
+          <t xml:space="preserve">            Наполнитель Кошкина Полянка "ЛЯНОК" впитывающий, 5л.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4811178000039</t>
+          <t>4811178000329</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -5410,15 +5410,15 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель Кошкина Полянка "ЛЯНОК" впитывающий, 5л.</t>
+          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 5л (3кг)</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4811178000329</t>
+          <t>4811178000152</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -5455,15 +5455,15 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 5л (3кг)</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" древесный, 10л (5кг)</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>345</v>
+        <v>34</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4811178000152</t>
+          <t>4811178000541</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -5500,15 +5500,15 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" древесный, 10л (5кг)</t>
+          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 12л (6кг)</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4811178000541</t>
+          <t>4811178000411</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -5545,15 +5545,15 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 12л (6кг)</t>
+          <t xml:space="preserve">            Наполнитель древесный эконом "Кошкина Полянка", 10кг</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4811178000411</t>
+          <t>4811178000268</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -5590,15 +5590,15 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный эконом "Кошкина Полянка", 10кг</t>
+          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 15кг</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4811178000268</t>
+          <t>4811178000275</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -5635,15 +5635,15 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 15кг</t>
+          <t xml:space="preserve">            Устранитель запаха (дезодоратор) CAT'S GLADE Кошкина Полянка, 750мл</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4811178000275</t>
+          <t>4811178000473</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -5680,15 +5680,15 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Устранитель запаха (дезодоратор) CAT'S GLADE Кошкина Полянка, 750мл</t>
+          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. лаванды, 0,5 л</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4811178000473</t>
+          <t>4811178000527</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -5725,15 +5725,15 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. лаванды, 0,5 л</t>
+          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. ромашки, 0,5 л</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>4811178000527</t>
+          <t>4811178000534</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -5770,15 +5770,15 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. ромашки, 0,5 л</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE S, белый</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4811178000534</t>
+          <t>6951135203993</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -5815,15 +5815,15 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE S, белый</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE  M, белый</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>6951135203993</t>
+          <t>6951135204006</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -5860,15 +5860,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE  M, белый</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE L, белый</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>6951135204006</t>
+          <t>6951135204013</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -5905,15 +5905,15 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE L, белый</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE XL, белый</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>6951135204013</t>
+          <t>6951135204020</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -5950,15 +5950,15 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE XL, белый</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., белая</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>6951135204020</t>
+          <t>6951135203412</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -5995,15 +5995,15 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., белая</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., красная</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>6951135203412</t>
+          <t>6951135203290</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -6040,15 +6040,15 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., синяя</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>6951135203290</t>
+          <t>6951135203306</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -6085,15 +6085,15 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., коричневая</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>6951135203306</t>
+          <t>6951135203429</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -6130,15 +6130,15 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., коричневая</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., красная</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>6951135203429</t>
+          <t>6951135203313</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -6175,15 +6175,15 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., красная</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>6951135203313</t>
+          <t>6951135203337</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -6220,15 +6220,15 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., синяя</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>6951135203337</t>
+          <t>6951135203344</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -6265,15 +6265,15 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars М лента 5 м., белая</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>6951135203344</t>
+          <t>6951135203436</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -6310,15 +6310,15 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars М лента 5 м., белая</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., белый</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>6951135203436</t>
+          <t>6951135202408</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -6355,15 +6355,15 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., белый</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., красная</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>6951135202408</t>
+          <t>6951135203351</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -6400,15 +6400,15 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., синяя</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>6951135203351</t>
+          <t>6951135203368</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -6445,15 +6445,15 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., красная</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>6951135203368</t>
+          <t>6951135202552</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -6490,15 +6490,15 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., синяя</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>6951135202552</t>
+          <t>6951135202545</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -6535,15 +6535,15 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINIA XS лента 3 м., черная</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>6951135202545</t>
+          <t>6951135202538</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -6580,15 +6580,15 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINIA XS лента 3 м., черная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., красная</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>6951135202538</t>
+          <t>6951135202590</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -6625,15 +6625,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., синяя</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>6951135202590</t>
+          <t>6951135202583</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -6670,15 +6670,15 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., черная</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>6951135202583</t>
+          <t>6951135202576</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -6715,15 +6715,15 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., черная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., красная</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>6951135202576</t>
+          <t>6951135202637</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -6760,15 +6760,15 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., синяя</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>6951135202637</t>
+          <t>6951135202620</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -6805,15 +6805,15 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., черная</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>6951135202620</t>
+          <t>6951135202613</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -6850,15 +6850,15 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., черная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., красная</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>6951135202613</t>
+          <t>6951135202675</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -6895,15 +6895,15 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., синяя</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>6951135202675</t>
+          <t>6951135202668</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -6940,7 +6940,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., синяя</t>
+          <t xml:space="preserve">            Скользящий поводок (удавка) 170 -1,3 серый</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>6951135202668</t>
+          <t>4811178000657</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -6985,15 +6985,15 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Скользящий поводок (удавка) 170 -1,3 серый</t>
+          <t xml:space="preserve">            Сменный блок мешков для мусора, желтый</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4811178000657</t>
+          <t>6951135203931</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -7030,15 +7030,15 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Сменный блок мешков для мусора, желтый</t>
+          <t xml:space="preserve">            Дозатор мешков для мусора, белый</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>6951135203931</t>
+          <t>6951135200008</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -7075,15 +7075,15 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Дозатор мешков для мусора, белый</t>
+          <t xml:space="preserve">            Classic Budgies комбинированный корм для волнистых попугаев, 500гр</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>119</v>
+        <v>356</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6951135200008</t>
+          <t>5410340211526</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -7120,15 +7120,15 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Classic Budgies комбинированный корм для волнистых попугаев, 500гр</t>
+          <t xml:space="preserve">            Сено луговое ПОЛЯНКА ПРЕМИУМ пакет, 14л</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>356</v>
+        <v>50</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5410340211526</t>
+          <t>4811178000282</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -7165,7 +7165,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Сено луговое ПОЛЯНКА ПРЕМИУМ пакет, 14л</t>
+          <t xml:space="preserve">            Стружка древесная ПОЛЯНКА ПРЕМИУМ, 19л</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4811178000282</t>
+          <t>4811178000251</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -7210,15 +7210,15 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Стружка древесная ПОЛЯНКА ПРЕМИУМ, 19л</t>
+          <t xml:space="preserve">            Наполнитель для клеток грызунов и мелких домашних животных ПОЛЯНКА ПРЕМИУМ "ЛЯНОК" впитывающий, 3л.</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4811178000251</t>
+          <t>4811178000404</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -7255,15 +7255,15 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для клеток грызунов и мелких домашних животных ПОЛЯНКА ПРЕМИУМ "ЛЯНОК" впитывающий, 3л.</t>
+          <t xml:space="preserve">            EXTREME COMPACT наполнитель комкующийся для кошачьих туалетов, 7,5л.</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4811178000404</t>
+          <t>5410340230794</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -7297,51 +7297,6 @@
       <c r="AF150" t="inlineStr"/>
       <c r="AG150" t="inlineStr"/>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            EXTREME COMPACT наполнитель комкующийся для кошачьих туалетов, 7,5л.</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>41</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>5410340230794</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
-      <c r="AA151" t="inlineStr"/>
-      <c r="AB151" t="inlineStr"/>
-      <c r="AC151" t="inlineStr"/>
-      <c r="AD151" t="inlineStr"/>
-      <c r="AE151" t="inlineStr"/>
-      <c r="AF151" t="inlineStr"/>
-      <c r="AG151" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new kartochki/trbt.xlsx
+++ b/new kartochki/trbt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG150"/>
+  <dimension ref="A1:AH200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,150 +451,155 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Цена с НДС</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Артикул</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Ozon Product ID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FBO OZON SKU ID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FBS OZON SKU ID</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>CrossBorder Ozon SKU</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Наименование товара</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Контент-рейтинг</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Бренд</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Статус товара</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Видимость FBO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Причины скрытия FBO (при наличии)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Видимость FBS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Причины скрытия FBS (при наличии)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Дата создания</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Категория комиссии</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Объем товара, л</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Объемный вес, кг</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Доступно к продаже по схеме FBO, шт.</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Вывезти и нанести КИЗ (кроме Твери), шт</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Зарезервировано, шт</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Доступно к продаже по схеме FBS, шт.</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Доступно к продаже по схеме realFBS, шт.</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Зарезервировано на моих складах, шт</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Текущая цена с учетом скидки, ₽</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Цена до скидки (перечеркнутая цена), ₽</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Цена Premium, ₽</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Рыночная цена, ₽</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Актуальная ссылка на рыночную цену</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Размер НДС, %</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Остаток</t>
         </is>
@@ -614,7 +619,9 @@
           <t>8022967038980</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>62.66</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -644,6 +651,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -659,7 +667,9 @@
           <t>8022967039246</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>77.76000000000001</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -689,6 +699,7 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -704,7 +715,9 @@
           <t>8022967067287</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>163.85</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -734,6 +747,7 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -742,14 +756,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>8022967045063</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>91.15000000000001</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -779,6 +795,7 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -794,7 +811,9 @@
           <t>8022967045711</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>209.15</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -824,6 +843,7 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -839,7 +859,9 @@
           <t>8022967036177</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>299.77</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -869,6 +891,7 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -884,7 +907,9 @@
           <t>8022967045070</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>332.32</v>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -914,6 +939,7 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -929,7 +955,9 @@
           <t>8022967058223</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>413.22</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -959,18 +987,25 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        SKUDO KIT - болты для переносок SKUDO 4-5-6-7</t>
+          <t xml:space="preserve">        SKUDO KIT - авианабор для переносок SKUDO 4-5-6-7</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>12</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8022967062077</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>32.05</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1000,22 +1035,25 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">        SKUDO KIT - авианабор для переносок SKUDO 4-5-6-7</t>
+          <t xml:space="preserve">        SKUDO KIT TRAVEL - авианабор для переносок SKUDO 4-5-6-7</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8022967062077</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>8022967067058</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>48.44</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1045,6 +1083,7 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1053,10 +1092,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8022967059817</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>87.67</v>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1086,22 +1131,25 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">        SKUDO CAR 80 - переноска автомобильная (77x43x51h)</t>
+          <t xml:space="preserve">        SKUDO 5 FLY KIT - набор защитных решеток для переносок SKUDO 5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8022967058667</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>8022967059824</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>94.03</v>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1131,22 +1179,25 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        SKUDO CAR 90 - переноска автомобильная (89x51x60h)</t>
+          <t xml:space="preserve">        SKUDO WHEELS - набор колес для переносок SKUDO 4-5-6-7</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8022967058674</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>8022967067270</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>64.67</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1176,22 +1227,25 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">        SKUDO CAR 100 - переноска автомобильная (99x60x68h)</t>
+          <t xml:space="preserve">        SKUDO WHEELS DELUX - набор колес для переносок SKUDO 4-5-6-7</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8022967058681</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>8022967036313</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>88.12</v>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1221,22 +1275,23 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">        PRATIKO 1 METAL - переноска (48x31,5x33h)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
+          <t xml:space="preserve">        CUSCINO - коврик впитывающий для SKUDO 1 (38,5x24,5x2h)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8022967049047</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>6427803001265</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>21.07</v>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1266,22 +1321,23 @@
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">        PRATIKO 3 METAL - переноска (60x40x39h)</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
+          <t xml:space="preserve">        CUSCINO - коврик впитывающий для SKUDO 2 (42x26,5x2h)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8022967066587</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>6427803001272</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>25.99</v>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1311,22 +1367,23 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">        PORTOBELLO - переноска для грызунов (30x23x21h)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>77</v>
-      </c>
+          <t xml:space="preserve">        CUSCINO - коврик впитывающий для SKUDO 3 (46,5x30x2h)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8018084051261</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>6427803001289</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>31.1</v>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1356,22 +1413,25 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">        BARAKA M - будка для собак пластиковая (93x73x60h)</t>
+          <t xml:space="preserve">        SKUDO CAR 80 - переноска автомобильная (77x43x51h)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8022967067317</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>8022967058667</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>271.57</v>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1401,22 +1461,25 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">        CUSHION GENA 1 - матрас для лежанки STRAKA 38 (40x28x11h)</t>
+          <t xml:space="preserve">        SKUDO CAR 90 - переноска автомобильная (89x51x60h)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6427803015829</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>8022967058674</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>329.62</v>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1446,22 +1509,25 @@
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">        CUSHION GENA 2 - матрас для лежанки STRAKA 50 (54x36x11h)</t>
+          <t xml:space="preserve">        SKUDO CAR 100 - переноска автомобильная (99x60x68h)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6427803002842</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>8022967058681</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>389.96</v>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1491,22 +1557,23 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">        CUSHION GENA 3 - матрас для лежанки STRAKA 66 (71x51x11h)</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>6</v>
-      </c>
+          <t xml:space="preserve">        PRATIKO 1 PLASTICA - переноска (48x31,5x33h)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6427803002859</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>8022967049030</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>34.04</v>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1536,22 +1603,25 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">        CUSHION GENA 4 - матрас для лежанки STRAKA 77 (85x64x13h)</t>
+          <t xml:space="preserve">        PRATIKO 2 PLASTICA - переноска (55x36x36h)светло-зеленая, темно-синяя, темно-синяя</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6427803002866</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>8022967064293</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>43.15</v>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1581,22 +1651,25 @@
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">        NELLA - лоток кошачий (58x37,5x18h)</t>
+          <t xml:space="preserve">        PRATIKO 3 OPEN - переноска (58,5x35,5x40h), темно-синяя</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8022967066600</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>8022967072953</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>88.03</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1626,22 +1699,23 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">        VEGA - совок (26,5x9x4h)</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1200</v>
-      </c>
+          <t xml:space="preserve">        PRATIKO 1 METAL - переноска (48x31,5x33h)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8022967014618</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>8022967049047</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>46.87</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1671,22 +1745,25 @@
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">        RHEA MAXI - совок (28,5x13x5,5h)</t>
+          <t xml:space="preserve">        PRATIKO 2 METAL - переноска (55x36x36h) пудровая, светло-зеленая, темно-синяя</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8022967065306</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>8022967055109</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>57.73</v>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1716,22 +1793,25 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        GEMINI - лоток кошачий (28x42x9h)</t>
+          <t xml:space="preserve">        PRATIKO 3 METAL - переноска (60x40x39h) пудровая, светло-зеленая, темно-синяя</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8022967041386</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>8022967066587</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>70.31</v>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1761,22 +1841,25 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">        BETA MAXI - лоток кошачий (49x39x13h)</t>
+          <t xml:space="preserve">        PORTOBELLO - переноска для грызунов (30x23x21h)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8022967050647</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>8018084051261</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>23.2</v>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1806,22 +1889,25 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">        BETA PLUS MAXI - лоток кошачий (49x39x18h)</t>
+          <t xml:space="preserve">        SIRIO LITTLE - переноска (50х33,5х31h), красная</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>8022967065320</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>8022967010016</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>46.09</v>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1851,22 +1937,25 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">        NELLA KIT - лоток кошачий с ковриком (58x37,5x18h)</t>
+          <t xml:space="preserve">        SIRIO LITTLE - переноска (50х33,5х31h), зеленая</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8022967066624</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>8022967010016</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>46.09</v>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1896,22 +1985,25 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">        TEPPY - коврик для лотка (41,5x24x05h)</t>
+          <t xml:space="preserve">        SIRIO LITTLE - переноска (50х33,5х31h), синяя</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>8022967066617</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>8022967010016</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>46.09</v>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1941,22 +2033,25 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">        VIRGO - лоток кошачий (52x39x20h)</t>
+          <t xml:space="preserve">        AVIOR - переноска (57,5х39,5х40,5h), серая</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8022967012751</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>8022967028967</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>61.43</v>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1986,22 +2081,25 @@
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">        CORNER OPEN - лоток кошачий угловой (52x50x14h)</t>
+          <t xml:space="preserve">        P-BAG W - переноска с плечевым ремнем (44,5х26,5х28h), пудровая</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8022967047197</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>8022967064446</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>54.74</v>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -2031,22 +2129,25 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">        NETTA OPEN - лоток кошачий с высоким бортом (54x39x29h)</t>
+          <t xml:space="preserve">        BARAKA M - будка для собак пластиковая (93x73x60h)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8022967060073</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>8022967067317</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>290.27</v>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2076,22 +2177,23 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">        BUXO CLOSE - туалет закрытый кошачий (60x38x56h) </t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>8</v>
-      </c>
+          <t xml:space="preserve">        STRAKA 38 - лежанка пластиковая (49x33x15h)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>8022967067041</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>8022967065337</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>26.23</v>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2121,22 +2223,25 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">        BUXO OPEN - туалет открытый кошачий (60x38x39h)</t>
+          <t xml:space="preserve">        CUSHION GENA 1 - матрас для лежанки STRAKA 38 (40x28x11h)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8022967067034</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>6427803015829</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20.82</v>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -2166,22 +2271,23 @@
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MISO - лоток кошачий тройной с просеивателем (54x38,5x16h)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>8</v>
-      </c>
+          <t xml:space="preserve">        STRAKA 50 - лежанка пластиковая (58x41x18,5h)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8022967064439</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>8022967065344</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>38.11</v>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -2211,22 +2317,25 @@
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">        KRONO - туалет закрытый кошачий (52x39x39h)</t>
+          <t xml:space="preserve">        CUSHION GENA 2 - матрас для лежанки STRAKA 50 (54x36x11h)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8022967021562</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>6427803002842</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>31.44</v>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -2256,22 +2365,23 @@
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        KOMODA - туалет закрытый кошачий (54x39x40h)</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>150</v>
-      </c>
+          <t xml:space="preserve">        STRAKA 66 - лежанка пластиковая (86x59x26h)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8022967050654</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>8022967065351</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>53.44</v>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -2301,22 +2411,25 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">        PIXI - туалет закрытый кошачий (52x39x39h)</t>
+          <t xml:space="preserve">        CUSHION GENA 3 - матрас для лежанки STRAKA 66 (71x51x11h)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>8022967010535</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>6427803002859</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>50.82</v>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2346,22 +2459,23 @@
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">        NETTA - туалет закрытый кошачий (54x39x40h)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>53</v>
-      </c>
+          <t xml:space="preserve">        STRAKA 77 - лежанка пластиковая (93x67x28h)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8022967060066</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>8022967065368</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>69.14</v>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2391,22 +2505,25 @@
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">        NETTA MAXI - туалет закрытый кошачий (66x49x50h)</t>
+          <t xml:space="preserve">        CUSHION GENA 4 - матрас для лежанки STRAKA 77 (85x64x13h)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>8022967062091</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>6427803002866</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>65.56</v>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2436,22 +2553,23 @@
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">        CORNER - туалет закрытый кошачий угловой (52x59,5x44,5h)</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>72</v>
-      </c>
+          <t xml:space="preserve">        STRAKA 90 - лежанка пластиковая (109x83x29h)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>8022967046701</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>8022967065375</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>86.98999999999999</v>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -2481,22 +2599,23 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Стиль 80-x - туалет закрытый кошачий с выдвижным поддоном (50x40x42h)</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>16</v>
-      </c>
+          <t xml:space="preserve">        CUSHION GENA 5 - матрас для лежанки STRAKA 90 (98x70x13h)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>8022967068901</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>6427803002873</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>87.98</v>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -2526,22 +2645,25 @@
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA S low - миска пластиковая (d11,5x3,5h)</t>
+          <t xml:space="preserve">        NELLA - лоток кошачий (58x37,5x18h)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8022967025751</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>8022967066600</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>27.76</v>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -2571,22 +2693,25 @@
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA S low RUBB - миска пластиковая нескользящая (d11,5x3,5h)</t>
+          <t xml:space="preserve">        VEGA - совок (26,5x9x4h)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>1200</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8022967025690</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>8022967014618</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2.04</v>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2616,22 +2741,25 @@
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA S - миска пластиковая (d11,5x5,5h)</t>
+          <t xml:space="preserve">        RHEA MAXI - совок (28,5x13x5,5h)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>8022967022927</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>8022967065306</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4.08</v>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2661,22 +2789,25 @@
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA S RUBB - миска пластиковая нескользящая (d11,5x5,5h)</t>
+          <t xml:space="preserve">        GEMINI - лоток кошачий (28x42x9h)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>8022967012799</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>8022967041386</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>8.06</v>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2706,22 +2837,23 @@
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA M - миска пластиковая (d14,5x6,5h)</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3</v>
-      </c>
+          <t xml:space="preserve">        BETA SMALL - лоток кошачий (43x31x12h)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>8022967022934</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>8022967023474</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>15.24</v>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2751,22 +2883,25 @@
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA M RUBB - миска пластиковая нескользящая (d14,5x6,5h)</t>
+          <t xml:space="preserve">        BETA MAXI - лоток кошачий (49x39x13h)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>8022967012782</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>8022967050647</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>23.27</v>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2796,22 +2931,25 @@
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA L - миска пластиковая (d17x8h)</t>
+          <t xml:space="preserve">        BETA PLUS SMALL - лоток кошачий (43x31x17h) зеленый,синий,темно-синий</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>8022967022941</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>8022967065313</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>18.38</v>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -2841,22 +2979,25 @@
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA L RUBB - миска пластиковая нескользящая (d17x8h)</t>
+          <t xml:space="preserve">        BETA PLUS MAXI - лоток кошачий (49x39x18h)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>8022967012775</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>8022967065320</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>26.8</v>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2886,22 +3027,25 @@
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA XL RUBB - миска пластиковая нескользящая (d21,5x10h)</t>
+          <t xml:space="preserve">        NELLA KIT - лоток кошачий с ковриком (58x37,5x18h)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>8022967012805</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>8022967066624</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>34.26</v>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2931,22 +3075,25 @@
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA double M - миска двойная пластиковая, 0,3 л (26x15x8h)</t>
+          <t xml:space="preserve">        TEPPY - коврик для лотка (41,5x24x05h)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>8022967018777</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>8022967066617</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>7.22</v>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -2976,22 +3123,25 @@
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA double L - миска двойная пластиковая, 0,6 л (32x17x11h)</t>
+          <t xml:space="preserve">        VIRGO - лоток кошачий (52x39x20h)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>8022967022521</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>8022967012751</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>26.47</v>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -3021,22 +3171,25 @@
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA water L - миска с дозатором воды, 3,5 л (32,5x20x29h)</t>
+          <t xml:space="preserve">        CORNER OPEN - лоток кошачий угловой (52x50x14h)</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>8022967040594</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>8022967047197</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>31.33</v>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -3066,22 +3219,25 @@
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA food M - миска с дозатором корма, 700 гр (27x18x24h)</t>
+          <t xml:space="preserve">        NETTA OPEN - лоток кошачий с высоким бортом (54x39x29h) зеленый, синий</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>8022967032018</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>8022967060073</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>34.54</v>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -3111,22 +3267,25 @@
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MAYA food L - миска с дозатором корма, 1500 гр (32,5x20x29h)</t>
+          <t xml:space="preserve">        BUXO CLOSE - туалет закрытый кошачий (60x38x56h) </t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>8022967040587</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>8022967067041</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>82.3</v>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -3156,22 +3315,25 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">        LUNA S RUBB - миска пластиковая нескользящая (d19)</t>
+          <t xml:space="preserve">        BUXO OPEN - туалет открытый кошачий (60x38x39h)</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>8022967057431</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>8022967067034</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>61.74</v>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -3201,22 +3363,25 @@
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">        LUNA M RUBB - миска пластиковая нескользящая (d23,5)</t>
+          <t xml:space="preserve">        MISO - лоток кошачий тройной с просеивателем (54x38,5x16h)</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>8022967057448</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>8022967064439</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>49.34</v>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -3246,22 +3411,25 @@
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">        LUNA L RUBB - миска пластиковая нескользящая (d26)</t>
+          <t xml:space="preserve">        KRONO - туалет закрытый кошачий (52x39x39h) без дверки.</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>8022967057455</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>8022967021562</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>32.89</v>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -3291,22 +3459,25 @@
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">        LUNA XL RUBB- миска пластиковая нескользящая (d32)</t>
+          <t xml:space="preserve">        KROXI - туалет закрытый кошачий (52x39x39h) серый</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>8022967057462</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>8022967041133</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>37.31</v>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -3336,22 +3507,25 @@
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">        POTTY Small - поддон с двумя мисками (46x35x9h)</t>
+          <t xml:space="preserve">        KOMODA - туалет закрытый кошачий (54x39x40h)</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>8022967065382</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>8022967050654</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>39.23</v>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -3381,22 +3555,25 @@
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">        POTTY Large - поддон с двумя мисками (66x49x12h)</t>
+          <t xml:space="preserve">        NOVA - туалет закрытый кошачий (56x40x40,5h) белый</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>8018084052527</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>8022967029100</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>42.95</v>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -3426,22 +3603,25 @@
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">        KATIA - клетка для птиц (40x27x48h)</t>
+          <t xml:space="preserve">        PIXI - туалет закрытый кошачий (52x39x39h)</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>8022967038782</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>8022967010535</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>41</v>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -3471,22 +3651,25 @@
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">        MOIRA - клетка для птиц (53x32x55h)</t>
+          <t xml:space="preserve">        NETTA - туалет закрытый кошачий (54x39x40h) синий, зеленый</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>8022967040778</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>8022967060066</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>55.28</v>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -3516,11 +3699,12 @@
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">        VICTORIA - клетка для птиц (78,5x45x73h)</t>
+          <t xml:space="preserve">        NETTA MAXI - туалет закрытый кошачий (66x49x50h) синий, зеленый</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3528,10 +3712,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>8022967067256</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>8022967062091</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>90.5</v>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
@@ -3561,22 +3747,25 @@
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">        VICTORIA OPEN - клетка для птиц (78,5x45x88h)</t>
+          <t xml:space="preserve">        CORNER - туалет закрытый кошачий угловой (52x59,5x44,5h)</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>8022967067837</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>8022967046701</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>69.29000000000001</v>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -3606,22 +3795,25 @@
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">        IDA - клетка для птиц (78,5x45x73h)</t>
+          <t xml:space="preserve">        Стиль 80-x - туалет закрытый кошачий с выдвижным поддоном (50x40x42h)</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>8022967067263</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>8022967068901</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>80.52</v>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -3651,22 +3843,25 @@
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ROSE- клетка для птиц (78,5x45x73h)</t>
+          <t xml:space="preserve">        MAYA S low - миска пластиковая (d11,5x3,5h)</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>8022967042017</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>8022967025751</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3.44</v>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -3696,22 +3891,25 @@
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">        DAISY - клетка для птиц (57x37x60h)</t>
+          <t xml:space="preserve">        MAYA S low RUBB - миска пластиковая нескользящая (d11,5x3,5h)</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>8022967042000</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>8022967025690</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>4.16</v>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -3741,22 +3939,25 @@
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">        GIOTTO - поилка для грызунов , 150 мл</t>
+          <t xml:space="preserve">        MAYA S - миска пластиковая (d11,5x5,5h)</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>8018084072403</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>8022967022927</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>3.84</v>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -3786,22 +3987,25 @@
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">        RUN AROUND - шар-тренажер для грызунов (d18)</t>
+          <t xml:space="preserve">        MAYA S RUBB - миска пластиковая нескользящая (d11,5x5,5h)</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>8022967072380</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>8022967012799</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4.64</v>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -3831,22 +4035,25 @@
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">        EVA RABBIT - клетка для кроликов (79x45x52h)</t>
+          <t xml:space="preserve">        MAYA M - миска пластиковая (d14,5x6,5h)</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>8022967069366</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>8022967022934</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>4.32</v>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -3876,22 +4083,25 @@
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">        GERBILLO 80 - клетка для песчанок (80x45x60h)</t>
+          <t xml:space="preserve">        MAYA M RUBB - миска пластиковая нескользящая (d14,5x6,5h)</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>8022967066129</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>8022967012782</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>5.6</v>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3921,22 +4131,25 @@
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Набор1(корм д/собак+поводок-рулеткаS)"OptiLife"д/взр.собак мел.пород с чув.кож, лосось и рис 7,5+пов</t>
+          <t xml:space="preserve">        MAYA L - миска пластиковая (d17x8h)</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>4811178000558</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>8022967022941</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>5.6</v>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -3966,22 +4179,25 @@
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Набор2(корм д/собак+поводок-рулеткаS)"OptiLife"д/взр.собак мел.пород с чув.пищ,ягненок и рис 7,5+пов</t>
+          <t xml:space="preserve">        MAYA L RUBB - миска пластиковая нескользящая (d17x8h)</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4811178000565</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>8022967012775</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>6.56</v>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
@@ -4011,22 +4227,23 @@
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Набор3(корм д/собак+поводок-рулеткаL)"OptiLife"д/взр.собак с чув.пищ,ягненок и рис 12,5+поводок</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>5</v>
-      </c>
+          <t xml:space="preserve">        MAYA XL - миска пластиковая (d21,5x10h)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4811178000572</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>8022967022958</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>8.720000000000001</v>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
@@ -4056,22 +4273,25 @@
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Набор5(наполнитель д/кош.туалета+совок)Silicamix сила кислорода, лаванда,6л; совок</t>
+          <t xml:space="preserve">        MAYA XL RUBB - миска пластиковая нескользящая (d21,5x10h)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4811178000596</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>8022967012805</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>9.68</v>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -4101,22 +4321,23 @@
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Набор6 NECON корм низк.для взр.кошек с индейкой и рисом 10 кг+поилка дорож.,300мл,розовая</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
+          <t xml:space="preserve">        MAYA XXL - миска пластиковая (d23x15h)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>4811178000664</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>8022967042246</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>10.73</v>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -4146,22 +4367,25 @@
       <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 1 масло лососевое для собак и кошек для поддержания здоровья почек,150 мл</t>
+          <t xml:space="preserve">        ENJOY 2 ORGANICA - миска пластиковая (d17x0,38 л)</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>8057438754762</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>8022967068949</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>6.04</v>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -4191,22 +4415,25 @@
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 1 - для поддержания работы почек. Лососевое масло для собак и кошек, 500 мл</t>
+          <t xml:space="preserve">        ENJOY 3 ORGANICA - миска пластиковая (d20x0,60 л)</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>8057438752225</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>8022967068956</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>6.95</v>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -4236,22 +4463,25 @@
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 2 масло лососевое для собак и кошек для поддержания работы кишечника,150 мл</t>
+          <t xml:space="preserve">        ENJOY 4 ORGANICA - миска пластиковая (d24,5x1,3 л)</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>8057438753123</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>8022967068963</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>11.68</v>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -4281,22 +4511,23 @@
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 2 - для поддер.работы кишечника. Лососевое масло для собак и кошек., 500 мл.</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>29</v>
-      </c>
+          <t xml:space="preserve">        MAYA double S - миска двойная пластиковая, 0,15 л (11,5x21,5x6h)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>8057438752256</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>8022967022514</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>3.73</v>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -4326,22 +4557,25 @@
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 2 - для поддер/работы кишечника. Лососевое масло для собак и кошек., 950 мл</t>
+          <t xml:space="preserve">        MAYA double M - миска двойная пластиковая, 0,3 л (26x15x8h)</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>8057438752263</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>8022967018777</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>4.27</v>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -4371,22 +4605,25 @@
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 4 масло лосос.для собак и кошек для борьбы с непр.запахом из рот.полости,150мл</t>
+          <t xml:space="preserve">        MAYA double L - миска двойная пластиковая, 0,6 л (32x17x11h)</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>8057438753093</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>8022967022521</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>6.44</v>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -4416,22 +4653,25 @@
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 5 масло лососевое для собак и кошек для поддер. здоровья кожи и шерсти,150 мл</t>
+          <t xml:space="preserve">        MAYA water S - миска с дозатором воды, 0,5 л (17,5x11x17h)</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>8057438753024</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>8022967049184</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>9.44</v>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -4461,11 +4701,12 @@
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON SALMOIL RICETTA 6 масло лососевое для собак и кошек для поддержания здоровья суставов, 150мл</t>
+          <t xml:space="preserve">        MAYA water M - миска с дозатором воды, 1,5 л (27x18x24h)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -4473,10 +4714,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>8057438753031</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>8022967032025</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>13.31</v>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -4506,22 +4749,25 @@
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON корм низкозерновой для стерилизованных кошек с свининой и рисом. Масса нетто 1,5 кг</t>
+          <t xml:space="preserve">        MAYA water L - миска с дозатором воды, 3,5 л (32,5x20x29h)</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>8057438754076</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>8022967040594</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>18.56</v>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -4551,22 +4797,25 @@
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">            NECON корм низкозерновой для стерилизованных кошек с свининой и рисом., 10 кг</t>
+          <t xml:space="preserve">        MAYA food S - миска с дозатором корма, 200 гр (17,5x11x17h)</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8057438754205</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>8022967049177</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>9.44</v>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -4596,22 +4845,25 @@
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 3,8л</t>
+          <t xml:space="preserve">        MAYA food M - миска с дозатором корма, 700 гр (27x18x24h)</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4811178000107</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>8022967032018</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>13.31</v>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -4641,22 +4893,25 @@
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 20кг</t>
+          <t xml:space="preserve">        MAYA food L - миска с дозатором корма, 1500 гр (32,5x20x29h)</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4811178001043</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>8022967040587</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>18.58</v>
+      </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -4686,22 +4941,25 @@
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 3,8л</t>
+          <t xml:space="preserve">        MAYA COMBY - миска с дозатором корма и воды (35x30x31,5h)</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4811178000077</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>8022967069991</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>35.77</v>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -4731,22 +4989,25 @@
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 3,8л</t>
+          <t xml:space="preserve">        LUNA S RUBB - миска пластиковая нескользящая (d19)</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>4811178000084</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>8022967057431</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>6.08</v>
+      </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -4776,22 +5037,25 @@
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 7,6л</t>
+          <t xml:space="preserve">        LUNA M RUBB - миска пластиковая нескользящая (d23,5)</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4811178000121</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>8022967057448</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>7.52</v>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
@@ -4821,22 +5085,25 @@
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 7,6л</t>
+          <t xml:space="preserve">        LUNA L RUBB - миска пластиковая нескользящая (d26)</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4811178000138</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>8022967057455</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>9.289999999999999</v>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -4866,22 +5133,25 @@
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый, 11,4л</t>
+          <t xml:space="preserve">        LUNA XL RUBB- миска пластиковая нескользящая (d32)</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4811178000343</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>8022967057462</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>12.73</v>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -4911,22 +5181,25 @@
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый с лавандой, 11,4л</t>
+          <t xml:space="preserve">        POTTY Small - поддон с двумя мисками (46x35x9h)</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>4811178000350</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>8022967065382</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>27.06</v>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
@@ -4956,22 +5229,25 @@
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 20кг</t>
+          <t xml:space="preserve">        POTTY Large - поддон с двумя мисками (66x49x12h)</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4811178001029</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>8018084052527</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>50.51</v>
+      </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
@@ -5001,22 +5277,25 @@
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель Кошкина Полянка "СИЛИКАМИКС" впитывающий 5л.</t>
+          <t xml:space="preserve">        INCA S RUBB - миска пластиковая нескользящая (d20,3x4,5h)</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>461</v>
+        <v>96</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>4811178000336</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>8022967073110</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>11.68</v>
+      </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
@@ -5046,22 +5325,25 @@
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 6л</t>
+          <t xml:space="preserve">        INCA M RUBB - миска пластиковая нескользящая (d29,8x6,4h)</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>498</v>
+        <v>84</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4811178000428</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>8022967073127</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>17.58</v>
+      </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
@@ -5091,22 +5373,25 @@
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 12л</t>
+          <t xml:space="preserve">        OTO S - контейнер для хранения корма, 14 л. (25x16x34h) белый</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>4811178000497</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>8022967065634</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>38.93</v>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
@@ -5136,22 +5421,25 @@
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка""Silicamix Сила кислорода"Лаванда впитывающий, 6л</t>
+          <t xml:space="preserve">        OTO L - контейнер для хранения корма, 54 л. (40x24x55h) белый</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4811178000503</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>8022967065412</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>74.66</v>
+      </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -5181,22 +5469,25 @@
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель д/кош.туалета"Кошкина Полянка" BENT-O2-SIL"с силикагелем и активн.кислородом,комкующ.,5л</t>
+          <t xml:space="preserve">        KATIA - клетка для птиц (40x27x48h)</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4811178000480</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>8022967038782</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>118.02</v>
+      </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
@@ -5226,22 +5517,25 @@
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель впитывающий "Кошкина Полянка" (цеолит), 5л.</t>
+          <t xml:space="preserve">        MOIRA - клетка для птиц (53x32x55h)</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>441</v>
+        <v>6</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4811178000145</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>8022967040778</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>131.46</v>
+      </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -5271,22 +5565,23 @@
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 3кг</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>352</v>
-      </c>
+          <t xml:space="preserve">        MOIRA - клетка для птиц, с подиумом (53x32x120h)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>4811178000060</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>8022967055123</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>173.56</v>
+      </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
@@ -5316,22 +5611,23 @@
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 5кг</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>72</v>
-      </c>
+          <t xml:space="preserve">        SOPHIA 2 - клетка для птиц (56x33x65h)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4811178000039</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>8022967055147</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>184.08</v>
+      </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -5361,22 +5657,23 @@
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель Кошкина Полянка "ЛЯНОК" впитывающий, 5л.</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>359</v>
-      </c>
+          <t xml:space="preserve">        LISA 50 - клетка для птиц (53x32x63h)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4811178000329</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>8022967048323</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>139.25</v>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
@@ -5406,22 +5703,25 @@
       <c r="AE108" t="inlineStr"/>
       <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="inlineStr"/>
+      <c r="AH108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 5л (3кг)</t>
+          <t xml:space="preserve">        VICTORIA - клетка для птиц (78,5x45x73h)</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>345</v>
+        <v>10</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4811178000152</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>8022967067256</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>310.9</v>
+      </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
@@ -5451,22 +5751,25 @@
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr"/>
       <c r="AG109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" древесный, 10л (5кг)</t>
+          <t xml:space="preserve">        VICTORIA OPEN - клетка для птиц (78,5x45x88h)</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4811178000541</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>8022967067837</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>363.35</v>
+      </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -5496,22 +5799,25 @@
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 12л (6кг)</t>
+          <t xml:space="preserve">        IDA - клетка для птиц (78,5x45x73h)</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4811178000411</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>8022967067263</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>277.76</v>
+      </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
@@ -5541,22 +5847,25 @@
       <c r="AE111" t="inlineStr"/>
       <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="inlineStr"/>
+      <c r="AH111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный эконом "Кошкина Полянка", 10кг</t>
+          <t xml:space="preserve">        ROSE- клетка для птиц (78,5x45x73h)</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4811178000268</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>8022967042017</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>277.76</v>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
@@ -5586,22 +5895,25 @@
       <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="inlineStr"/>
+      <c r="AH112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 15кг</t>
+          <t xml:space="preserve">        DAISY - клетка для птиц (57x37x60h)</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4811178000275</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>8022967042000</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>213.79</v>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -5631,22 +5943,25 @@
       <c r="AE113" t="inlineStr"/>
       <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Устранитель запаха (дезодоратор) CAT'S GLADE Кошкина Полянка, 750мл</t>
+          <t xml:space="preserve">        GIOTTO - поилка для грызунов , 150 мл</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4811178000473</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>8018084072403</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>10.66</v>
+      </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
@@ -5676,22 +5991,25 @@
       <c r="AE114" t="inlineStr"/>
       <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="inlineStr"/>
+      <c r="AH114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. лаванды, 0,5 л</t>
+          <t xml:space="preserve">        GIOTTO - поилка для грызунов , 400 мл</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4811178000527</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>8022967072410</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>12.7</v>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
@@ -5721,22 +6039,25 @@
       <c r="AE115" t="inlineStr"/>
       <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. ромашки, 0,5 л</t>
+          <t xml:space="preserve">        RUN AROUND - шар-тренажер для грызунов (d18)</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>4811178000534</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>8022967072380</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>22.07</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5766,22 +6087,25 @@
       <c r="AE116" t="inlineStr"/>
       <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="inlineStr"/>
+      <c r="AH116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE S, белый</t>
+          <t xml:space="preserve">        KLEO BOX - домик для черепах пластиковый (58x32x31h)</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>6951135203993</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>8022967050661</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>65.76000000000001</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5811,22 +6135,25 @@
       <c r="AE117" t="inlineStr"/>
       <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="inlineStr"/>
+      <c r="AH117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE  M, белый</t>
+          <t xml:space="preserve">        KLEO BOX - домик для грызунов пластиковый (58x32x31h)</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>6951135204006</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>8022967040785</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>75</v>
+      </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
@@ -5856,22 +6183,25 @@
       <c r="AE118" t="inlineStr"/>
       <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="inlineStr"/>
+      <c r="AH118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE L, белый</t>
+          <t xml:space="preserve">        CHIOS - домик для черепах (34x42x22h)</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>6951135204013</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>8022967072595</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>55.54</v>
+      </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
@@ -5901,22 +6231,23 @@
       <c r="AE119" t="inlineStr"/>
       <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="inlineStr"/>
+      <c r="AH119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE XL, белый</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>17</v>
-      </c>
+          <t xml:space="preserve">        JERRY 100 - клетка для грызунов (80x45x74h)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>6951135204020</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>8022967034418</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>293.65</v>
+      </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
@@ -5946,22 +6277,25 @@
       <c r="AE120" t="inlineStr"/>
       <c r="AF120" t="inlineStr"/>
       <c r="AG120" t="inlineStr"/>
+      <c r="AH120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., белая</t>
+          <t xml:space="preserve">        EVA RABBIT - клетка для кроликов (79x45x52h)</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>6951135203412</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>8022967069366</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>228.54</v>
+      </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -5991,22 +6325,25 @@
       <c r="AE121" t="inlineStr"/>
       <c r="AF121" t="inlineStr"/>
       <c r="AG121" t="inlineStr"/>
+      <c r="AH121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., красная</t>
+          <t xml:space="preserve">        GERBILLO 80 - клетка для песчанок (80x45x60h)</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>6951135203290</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>8022967066129</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>335.62</v>
+      </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
@@ -6036,22 +6373,23 @@
       <c r="AE122" t="inlineStr"/>
       <c r="AF122" t="inlineStr"/>
       <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., синяя</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>33</v>
-      </c>
+          <t xml:space="preserve">        CHINCILLA 80 - клетка для шиншилл (80x45x74h)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>6951135203306</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>8022967035613</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>224.29</v>
+      </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
@@ -6081,22 +6419,25 @@
       <c r="AE123" t="inlineStr"/>
       <c r="AF123" t="inlineStr"/>
       <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., коричневая</t>
+          <t xml:space="preserve">        Набор1(корм д/собак+поводок-рулеткаS)"OptiLife"д/взр.собак мел.пород с чув.кож, лосось и рис 7,5+пов</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>6951135203429</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>4811178000558</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>115.79</v>
+      </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
@@ -6126,22 +6467,23 @@
       <c r="AE124" t="inlineStr"/>
       <c r="AF124" t="inlineStr"/>
       <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., красная</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>58</v>
-      </c>
+          <t xml:space="preserve">        Набор1 NECON корм низкоз.для взр.кошек с лососем и рисом 10 кг+ поилка дорож.для живот., 300 м серая</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>6951135203313</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>4811178000602</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>221.11</v>
+      </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -6171,22 +6513,25 @@
       <c r="AE125" t="inlineStr"/>
       <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="inlineStr"/>
+      <c r="AH125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., красная</t>
+          <t xml:space="preserve">        Набор2(корм д/собак+поводок-рулеткаS)"OptiLife"д/взр.собак мел.пород с чув.пищ,ягненок и рис 7,5+пов</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>6951135203337</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>4811178000565</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>111.47</v>
+      </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
@@ -6216,22 +6561,23 @@
       <c r="AE126" t="inlineStr"/>
       <c r="AF126" t="inlineStr"/>
       <c r="AG126" t="inlineStr"/>
+      <c r="AH126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., синяя</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>36</v>
-      </c>
+          <t xml:space="preserve">        Набор2 NECON корм низкоз.для взр.кошек с индейкой и рисом 10 кг+поилка дорож.для жив.300мл, серая</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>6951135203344</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>4811178000619</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>214.2</v>
+      </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
@@ -6261,22 +6607,25 @@
       <c r="AE127" t="inlineStr"/>
       <c r="AF127" t="inlineStr"/>
       <c r="AG127" t="inlineStr"/>
+      <c r="AH127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars М лента 5 м., белая</t>
+          <t xml:space="preserve">        Набор3(корм д/собак+поводок-рулеткаL)"OptiLife"д/взр.собак с чув.пищ,ягненок и рис 12,5+поводок</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>6951135203436</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>4811178000572</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>183.95</v>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
@@ -6306,22 +6655,23 @@
       <c r="AE128" t="inlineStr"/>
       <c r="AF128" t="inlineStr"/>
       <c r="AG128" t="inlineStr"/>
+      <c r="AH128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., белый</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>29</v>
-      </c>
+          <t xml:space="preserve">        Набор3 NECON корм низкоз. для стер.кошек с индейкой и рисом 10 кг+ поилка дорож.для жив.,300мл,серая</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>6951135202408</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>4811178000626</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>221</v>
+      </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -6351,22 +6701,23 @@
       <c r="AE129" t="inlineStr"/>
       <c r="AF129" t="inlineStr"/>
       <c r="AG129" t="inlineStr"/>
+      <c r="AH129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., красная</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>37</v>
-      </c>
+          <t xml:space="preserve">        Набор4(2пакета корм д/кошек+наполнитель)"OptiLife"д/кошек, мочев.путей, курица,2,5кг; наполнитель 12</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>6951135203351</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>4811178000589</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>118.7</v>
+      </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -6396,22 +6747,23 @@
       <c r="AE130" t="inlineStr"/>
       <c r="AF130" t="inlineStr"/>
       <c r="AG130" t="inlineStr"/>
+      <c r="AH130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., синяя</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>33</v>
-      </c>
+          <t xml:space="preserve">        Набор4 NECON корм низкоз.для стер.кошек с океан.рыбой и крилем10 кг+поилка дорож.для жив.300мл,серая</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>6951135203368</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>4811178000633</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>221.03</v>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
@@ -6441,22 +6793,25 @@
       <c r="AE131" t="inlineStr"/>
       <c r="AF131" t="inlineStr"/>
       <c r="AG131" t="inlineStr"/>
+      <c r="AH131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., красная</t>
+          <t xml:space="preserve">        Набор5(наполнитель д/кош.туалета+совок)Silicamix сила кислорода, лаванда,6л; совок</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>6951135202552</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>4811178000596</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>10.03</v>
+      </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
@@ -6486,22 +6841,23 @@
       <c r="AE132" t="inlineStr"/>
       <c r="AF132" t="inlineStr"/>
       <c r="AG132" t="inlineStr"/>
+      <c r="AH132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., синяя</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>22</v>
-      </c>
+          <t xml:space="preserve">        Набор5 NECON корм низкоз.для стер.кошек с уткой и рисом 10 кг+поилка дор.для живот.,300мл,серая</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>6951135202545</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>4811178000640</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>227.83</v>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -6531,22 +6887,25 @@
       <c r="AE133" t="inlineStr"/>
       <c r="AF133" t="inlineStr"/>
       <c r="AG133" t="inlineStr"/>
+      <c r="AH133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINIA XS лента 3 м., черная</t>
+          <t xml:space="preserve">        Набор6 NECON корм низк.для взр.кошек с индейкой и рисом 10 кг+поилка дорож.,300мл,розовая</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>6951135202538</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>4811178000664</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>214.2</v>
+      </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
@@ -6576,22 +6935,25 @@
       <c r="AE134" t="inlineStr"/>
       <c r="AF134" t="inlineStr"/>
       <c r="AG134" t="inlineStr"/>
+      <c r="AH134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., красная</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 3,8л</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>52</v>
+        <v>332</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>6951135202590</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>4811178000107</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
@@ -6621,22 +6983,25 @@
       <c r="AE135" t="inlineStr"/>
       <c r="AF135" t="inlineStr"/>
       <c r="AG135" t="inlineStr"/>
+      <c r="AH135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., синяя</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 20кг</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>6951135202583</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>4811178001043</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>114</v>
+      </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -6666,22 +7031,25 @@
       <c r="AE136" t="inlineStr"/>
       <c r="AF136" t="inlineStr"/>
       <c r="AG136" t="inlineStr"/>
+      <c r="AH136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., черная</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 3,8л</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>18</v>
+        <v>386</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>6951135202576</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>4811178000077</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>9.9</v>
+      </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
@@ -6711,22 +7079,25 @@
       <c r="AE137" t="inlineStr"/>
       <c r="AF137" t="inlineStr"/>
       <c r="AG137" t="inlineStr"/>
+      <c r="AH137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., красная</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 3,8л</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>6951135202637</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>4811178000084</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>10</v>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
@@ -6756,22 +7127,25 @@
       <c r="AE138" t="inlineStr"/>
       <c r="AF138" t="inlineStr"/>
       <c r="AG138" t="inlineStr"/>
+      <c r="AH138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., синяя</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 7,6л</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>6951135202620</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>4811178000121</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>19.7</v>
+      </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
@@ -6801,22 +7175,25 @@
       <c r="AE139" t="inlineStr"/>
       <c r="AF139" t="inlineStr"/>
       <c r="AG139" t="inlineStr"/>
+      <c r="AH139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., черная</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 7,6л</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>6951135202613</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>4811178000138</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>19.9</v>
+      </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
@@ -6846,22 +7223,23 @@
       <c r="AE140" t="inlineStr"/>
       <c r="AF140" t="inlineStr"/>
       <c r="AG140" t="inlineStr"/>
+      <c r="AH140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., красная</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>37</v>
-      </c>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом яблока, 7,6л</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>6951135202675</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>4811178000435</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>19.9</v>
+      </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -6891,22 +7269,25 @@
       <c r="AE141" t="inlineStr"/>
       <c r="AF141" t="inlineStr"/>
       <c r="AG141" t="inlineStr"/>
+      <c r="AH141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., синяя</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый, 11,4л</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>6951135202668</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>4811178000343</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>27</v>
+      </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
@@ -6936,22 +7317,25 @@
       <c r="AE142" t="inlineStr"/>
       <c r="AF142" t="inlineStr"/>
       <c r="AG142" t="inlineStr"/>
+      <c r="AH142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Скользящий поводок (удавка) 170 -1,3 серый</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый с лавандой, 11,4л</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4811178000657</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>4811178000350</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>27.3</v>
+      </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
@@ -6981,22 +7365,25 @@
       <c r="AE143" t="inlineStr"/>
       <c r="AF143" t="inlineStr"/>
       <c r="AG143" t="inlineStr"/>
+      <c r="AH143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Сменный блок мешков для мусора, желтый</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 20кг</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>6951135203931</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>4811178001012</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>117</v>
+      </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
@@ -7026,22 +7413,23 @@
       <c r="AE144" t="inlineStr"/>
       <c r="AF144" t="inlineStr"/>
       <c r="AG144" t="inlineStr"/>
+      <c r="AH144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Дозатор мешков для мусора, белый</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>119</v>
-      </c>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 20кг</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>6951135200008</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>4811178001029</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>118</v>
+      </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -7071,22 +7459,25 @@
       <c r="AE145" t="inlineStr"/>
       <c r="AF145" t="inlineStr"/>
       <c r="AG145" t="inlineStr"/>
+      <c r="AH145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Classic Budgies комбинированный корм для волнистых попугаев, 500гр</t>
+          <t xml:space="preserve">            Наполнитель Кошкина Полянка "СИЛИКАМИКС" впитывающий 5л.</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>356</v>
+        <v>461</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>5410340211526</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>4811178000336</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>9.050000000000001</v>
+      </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
@@ -7116,22 +7507,25 @@
       <c r="AE146" t="inlineStr"/>
       <c r="AF146" t="inlineStr"/>
       <c r="AG146" t="inlineStr"/>
+      <c r="AH146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Сено луговое ПОЛЯНКА ПРЕМИУМ пакет, 14л</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 6л</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>50</v>
+        <v>498</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4811178000282</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>4811178000428</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>10</v>
+      </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
@@ -7161,22 +7555,25 @@
       <c r="AE147" t="inlineStr"/>
       <c r="AF147" t="inlineStr"/>
       <c r="AG147" t="inlineStr"/>
+      <c r="AH147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Стружка древесная ПОЛЯНКА ПРЕМИУМ, 19л</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 12л</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4811178000251</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>4811178000497</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>18.94</v>
+      </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
@@ -7206,22 +7603,25 @@
       <c r="AE148" t="inlineStr"/>
       <c r="AF148" t="inlineStr"/>
       <c r="AG148" t="inlineStr"/>
+      <c r="AH148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для клеток грызунов и мелких домашних животных ПОЛЯНКА ПРЕМИУМ "ЛЯНОК" впитывающий, 3л.</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка""Silicamix Сила кислорода"Лаванда впитывающий, 6л</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4811178000404</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>4811178000503</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>10.38</v>
+      </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
@@ -7251,22 +7651,25 @@
       <c r="AE149" t="inlineStr"/>
       <c r="AF149" t="inlineStr"/>
       <c r="AG149" t="inlineStr"/>
+      <c r="AH149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">            EXTREME COMPACT наполнитель комкующийся для кошачьих туалетов, 7,5л.</t>
+          <t xml:space="preserve">            Наполнитель д/кош.туалета"Кошкина Полянка" BENT-O2-SIL"с силикагелем и активн.кислородом,комкующ.,5л</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>5410340230794</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>4811178000480</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>11.52</v>
+      </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
@@ -7296,6 +7699,2387 @@
       <c r="AE150" t="inlineStr"/>
       <c r="AF150" t="inlineStr"/>
       <c r="AG150" t="inlineStr"/>
+      <c r="AH150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель впитывающий "Кошкина Полянка" (цеолит), 5л.</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>441</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4811178000145</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr"/>
+      <c r="AF151" t="inlineStr"/>
+      <c r="AG151" t="inlineStr"/>
+      <c r="AH151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 3кг</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>352</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4811178000060</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr"/>
+      <c r="AF152" t="inlineStr"/>
+      <c r="AG152" t="inlineStr"/>
+      <c r="AH152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 5кг</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>72</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4811178000039</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="inlineStr"/>
+      <c r="AG153" t="inlineStr"/>
+      <c r="AH153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель Кошкина Полянка "ЛЯНОК" впитывающий, 5л.</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>359</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4811178000329</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr"/>
+      <c r="AF154" t="inlineStr"/>
+      <c r="AG154" t="inlineStr"/>
+      <c r="AH154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 5л (3кг)</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>345</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4811178000152</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="inlineStr"/>
+      <c r="AG155" t="inlineStr"/>
+      <c r="AH155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" древесный, 10л (5кг)</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>34</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4811178000541</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr"/>
+      <c r="AF156" t="inlineStr"/>
+      <c r="AG156" t="inlineStr"/>
+      <c r="AH156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 12л (6кг)</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>139</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4811178000411</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="inlineStr"/>
+      <c r="AG157" t="inlineStr"/>
+      <c r="AH157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель древесный эконом "Кошкина Полянка", 10кг</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>186</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4811178000268</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="inlineStr"/>
+      <c r="AG158" t="inlineStr"/>
+      <c r="AH158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 15кг</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4811178000275</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
+      <c r="AF159" t="inlineStr"/>
+      <c r="AG159" t="inlineStr"/>
+      <c r="AH159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Устранитель запаха (дезодоратор) CAT'S GLADE Кошкина Полянка, 750мл</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4811178000473</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr"/>
+      <c r="AG160" t="inlineStr"/>
+      <c r="AH160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. лаванды, 0,5 л</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>104</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4811178000527</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr"/>
+      <c r="AF161" t="inlineStr"/>
+      <c r="AG161" t="inlineStr"/>
+      <c r="AH161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. ромашки, 0,5 л</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>142</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4811178000534</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr"/>
+      <c r="AF162" t="inlineStr"/>
+      <c r="AG162" t="inlineStr"/>
+      <c r="AH162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE S, белый</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>45</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>6951135203993</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr"/>
+      <c r="AF163" t="inlineStr"/>
+      <c r="AG163" t="inlineStr"/>
+      <c r="AH163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE  M, белый</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>25</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>6951135204006</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>57.84</v>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr"/>
+      <c r="AF164" t="inlineStr"/>
+      <c r="AG164" t="inlineStr"/>
+      <c r="AH164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE L, белый</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>19</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>6951135204013</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>61.48</v>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr"/>
+      <c r="AF165" t="inlineStr"/>
+      <c r="AG165" t="inlineStr"/>
+      <c r="AH165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE XL, белый</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>17</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>6951135204020</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr"/>
+      <c r="AF166" t="inlineStr"/>
+      <c r="AG166" t="inlineStr"/>
+      <c r="AH166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., белая</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>25</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>6951135203412</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr"/>
+      <c r="AF167" t="inlineStr"/>
+      <c r="AG167" t="inlineStr"/>
+      <c r="AH167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., красная</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>28</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>6951135203290</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr"/>
+      <c r="AF168" t="inlineStr"/>
+      <c r="AG168" t="inlineStr"/>
+      <c r="AH168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., синяя</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>33</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>6951135203306</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr"/>
+      <c r="AF169" t="inlineStr"/>
+      <c r="AG169" t="inlineStr"/>
+      <c r="AH169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., коричневая</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>67</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>6951135203429</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+      <c r="AG170" t="inlineStr"/>
+      <c r="AH170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., красная</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>58</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>6951135203313</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+      <c r="AG171" t="inlineStr"/>
+      <c r="AH171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., красная</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>37</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>6951135203337</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="inlineStr"/>
+      <c r="AH172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., синяя</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>36</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>6951135203344</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="inlineStr"/>
+      <c r="AG173" t="inlineStr"/>
+      <c r="AH173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars М лента 5 м., белая</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>25</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>6951135203436</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr"/>
+      <c r="AF174" t="inlineStr"/>
+      <c r="AG174" t="inlineStr"/>
+      <c r="AH174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., белый</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>29</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>6951135202408</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr"/>
+      <c r="AF175" t="inlineStr"/>
+      <c r="AG175" t="inlineStr"/>
+      <c r="AH175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., красная</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>37</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>6951135203351</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="inlineStr"/>
+      <c r="AG176" t="inlineStr"/>
+      <c r="AH176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., синяя</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>33</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>6951135203368</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr"/>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr"/>
+      <c r="AF177" t="inlineStr"/>
+      <c r="AG177" t="inlineStr"/>
+      <c r="AH177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., красная</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>34</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>6951135202552</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="inlineStr"/>
+      <c r="AG178" t="inlineStr"/>
+      <c r="AH178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., синяя</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>22</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>6951135202545</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr"/>
+      <c r="AF179" t="inlineStr"/>
+      <c r="AG179" t="inlineStr"/>
+      <c r="AH179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINIA XS лента 3 м., черная</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>5</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>6951135202538</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr"/>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr"/>
+      <c r="AF180" t="inlineStr"/>
+      <c r="AG180" t="inlineStr"/>
+      <c r="AH180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., красная</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>52</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>6951135202590</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr"/>
+      <c r="AF181" t="inlineStr"/>
+      <c r="AG181" t="inlineStr"/>
+      <c r="AH181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., синяя</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>36</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>6951135202583</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr"/>
+      <c r="AF182" t="inlineStr"/>
+      <c r="AG182" t="inlineStr"/>
+      <c r="AH182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., черная</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>18</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>6951135202576</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="inlineStr"/>
+      <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., красная</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>35</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>6951135202637</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr"/>
+      <c r="AF184" t="inlineStr"/>
+      <c r="AG184" t="inlineStr"/>
+      <c r="AH184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., синяя</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>46</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>6951135202620</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr"/>
+      <c r="AF185" t="inlineStr"/>
+      <c r="AG185" t="inlineStr"/>
+      <c r="AH185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., черная</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>40</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>6951135202613</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., красная</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>37</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>6951135202675</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr"/>
+      <c r="AF187" t="inlineStr"/>
+      <c r="AG187" t="inlineStr"/>
+      <c r="AH187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., синяя</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>42</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>6951135202668</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
+      <c r="AF188" t="inlineStr"/>
+      <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., черная</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>6951135202651</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Скользящий поводок (удавка) 170 -1,3 серый</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>42</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>4811178000657</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr"/>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Сменный блок мешков для мусора, желтый</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>66</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>6951135203931</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr"/>
+      <c r="AE191" t="inlineStr"/>
+      <c r="AF191" t="inlineStr"/>
+      <c r="AG191" t="inlineStr"/>
+      <c r="AH191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Дозатор мешков для мусора, белый</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>119</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>6951135200008</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr"/>
+      <c r="AE192" t="inlineStr"/>
+      <c r="AF192" t="inlineStr"/>
+      <c r="AG192" t="inlineStr"/>
+      <c r="AH192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поилка дорожная для животных 300мл, розовая</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>6951135203948</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr"/>
+      <c r="AE193" t="inlineStr"/>
+      <c r="AF193" t="inlineStr"/>
+      <c r="AG193" t="inlineStr"/>
+      <c r="AH193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поилка дорожная для животных, 300мл, зеленая</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>6951135202955</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr"/>
+      <c r="AE194" t="inlineStr"/>
+      <c r="AF194" t="inlineStr"/>
+      <c r="AG194" t="inlineStr"/>
+      <c r="AH194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Поилка дорожная для животных, 300мл, серая</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>6951135203962</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr"/>
+      <c r="AE195" t="inlineStr"/>
+      <c r="AF195" t="inlineStr"/>
+      <c r="AG195" t="inlineStr"/>
+      <c r="AH195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            CANARIES PRESTIGE полнорационный сухой корм для канареек (Промо).1+0,2кг</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>5410340219096</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr"/>
+      <c r="AE196" t="inlineStr"/>
+      <c r="AF196" t="inlineStr"/>
+      <c r="AG196" t="inlineStr"/>
+      <c r="AH196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Сено луговое ПОЛЯНКА ПРЕМИУМ пакет, 14л</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>4811178000282</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr"/>
+      <c r="AE197" t="inlineStr"/>
+      <c r="AF197" t="inlineStr"/>
+      <c r="AG197" t="inlineStr"/>
+      <c r="AH197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Стружка древесная ПОЛЯНКА ПРЕМИУМ, 19л</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4811178000251</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr"/>
+      <c r="AE198" t="inlineStr"/>
+      <c r="AF198" t="inlineStr"/>
+      <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель для клеток грызунов и мелких домашних животных ПОЛЯНКА ПРЕМИУМ "ЛЯНОК" впитывающий, 3л.</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>144</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4811178000404</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
+      <c r="Z199" t="inlineStr"/>
+      <c r="AA199" t="inlineStr"/>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr"/>
+      <c r="AE199" t="inlineStr"/>
+      <c r="AF199" t="inlineStr"/>
+      <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            EXTREME COMPACT наполнитель комкующийся для кошачьих туалетов, 7,5л.</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>39</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>5410340230794</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr"/>
+      <c r="AE200" t="inlineStr"/>
+      <c r="AF200" t="inlineStr"/>
+      <c r="AG200" t="inlineStr"/>
+      <c r="AH200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
